--- a/cv/cv1/template.xlsx
+++ b/cv/cv1/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\cv-maker\cv\cv1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D756C4-AA49-4A63-9FF7-C51B7DDA7CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A6D5BC-8EDC-4D7E-86D2-15B412EC2F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BCF184E-ED53-4CB0-86C6-61CF073AA3FA}"/>
+    <workbookView xWindow="3015" yWindow="2475" windowWidth="21600" windowHeight="11295" xr2:uid="{417F11A9-F3EF-417F-B3DD-B75D4BABA294}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,14 +38,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Mathijs Berkelaar</t>
+    <t>fdsafads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,25 +53,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Aptos Black"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,12 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -425,30 +409,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1321E10-BAF9-40D5-954B-F64A626404AE}">
-  <dimension ref="B2:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135A4113-9828-410F-AF9A-28115C560439}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="100.85546875" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="2:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>